--- a/forms/contact/district_hospital-edit.xlsx
+++ b/forms/contact/district_hospital-edit.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -75,6 +75,9 @@
     <t xml:space="preserve">inputs</t>
   </si>
   <si>
+    <t xml:space="preserve">NO_LABEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">user</t>
   </si>
   <si>
@@ -114,35 +117,7 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">district_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">external</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">_name</t>
-    </r>
+    <t xml:space="preserve">district_external_name</t>
   </si>
   <si>
     <t xml:space="preserve">Edit District Name</t>
@@ -259,7 +234,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -310,12 +285,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -444,19 +413,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -468,11 +437,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -582,9 +551,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1056960</xdr:colOff>
+      <xdr:colOff>1830960</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -594,7 +563,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="14456880" cy="12916800"/>
+          <a:ext cx="14456520" cy="12916440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -633,15 +602,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="38.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="26.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.83"/>
@@ -710,6 +678,12 @@
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F2" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
@@ -720,31 +694,37 @@
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -753,30 +733,30 @@
         <v>15</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -792,19 +772,19 @@
     </row>
     <row r="10" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -820,19 +800,19 @@
     </row>
     <row r="11" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -847,19 +827,19 @@
     </row>
     <row r="12" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -874,16 +854,16 @@
     </row>
     <row r="13" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -899,16 +879,16 @@
     </row>
     <row r="14" s="12" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -917,14 +897,14 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L14" s="11"/>
       <c r="O14" s="11"/>
     </row>
     <row r="15" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2000,7 +1980,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -2031,16 +2011,16 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -2062,16 +2042,16 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -2166,25 +2146,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -2208,22 +2188,22 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="19" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-01  17-23</v>
+        <v>2024-07-12  10-31</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
